--- a/Prototype Programs/CO2_Test_Program/Uncovered Compiled Data.xlsx
+++ b/Prototype Programs/CO2_Test_Program/Uncovered Compiled Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camer\Documents\Uni\5th Year\1st Sem\Design in Mechanical and Mechatronic Systems\git\The-Brew-Crew\Prototype Programs\CO2_Test_Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C604A63-4E1D-4CE3-8AAB-D49DF64EA526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97275505-DDF4-4098-87AA-6AC8E7CAD2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="8" xr2:uid="{FED5880F-32E9-43EE-ADDD-B75A90415D73}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="7" xr2:uid="{FED5880F-32E9-43EE-ADDD-B75A90415D73}"/>
   </bookViews>
   <sheets>
     <sheet name="Tea Compiled" sheetId="1" r:id="rId1"/>
@@ -24896,7 +24896,7 @@
   <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32822,8 +32822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2520893F-9A27-4727-A598-0B0712DBBBB3}">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F94" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35442,8 +35442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE853F4F-3A84-4D3A-9C25-9925BA5BFAC6}">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F100" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43537,8 +43537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEB5AF9-6624-4A46-9E97-A4A7AADE9685}">
   <dimension ref="A1:AI123"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="AG21" sqref="AG21"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43655,143 +43655,143 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>AVERAGE(A112:AI122)</f>
-        <v>530.67012987012993</v>
+        <f>AVERAGE(A112:A122)</f>
+        <v>483.36363636363637</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:AI2" si="0">AVERAGE(B112:AJ122)</f>
-        <v>532.06149732620315</v>
+        <f t="shared" ref="B2:E2" si="0">AVERAGE(B112:B122)</f>
+        <v>568.5454545454545</v>
       </c>
       <c r="C2">
         <f t="shared" si="0"/>
-        <v>530.9559228650138</v>
+        <v>501.36363636363637</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
-        <v>531.88068181818187</v>
+        <v>469.81818181818181</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>533.88269794721407</v>
+        <v>450.81818181818181</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
-        <v>536.65151515151513</v>
+        <f>AVERAGE(F112:F122)</f>
+        <v>405.18181818181819</v>
       </c>
       <c r="G2">
-        <f t="shared" si="0"/>
-        <v>541.18495297805646</v>
+        <f t="shared" ref="G2:J2" si="1">AVERAGE(G112:G122)</f>
+        <v>404.27272727272725</v>
       </c>
       <c r="H2">
-        <f t="shared" si="0"/>
-        <v>546.07467532467535</v>
+        <f t="shared" si="1"/>
+        <v>406.36363636363637</v>
       </c>
       <c r="I2">
-        <f t="shared" si="0"/>
-        <v>551.2491582491582</v>
+        <f t="shared" si="1"/>
+        <v>404.72727272727275</v>
       </c>
       <c r="J2">
-        <f t="shared" si="0"/>
-        <v>556.88461538461536</v>
+        <f t="shared" si="1"/>
+        <v>404.81818181818181</v>
       </c>
       <c r="K2">
-        <f t="shared" si="0"/>
-        <v>562.96727272727276</v>
+        <f>AVERAGE(K112:K122)</f>
+        <v>580.81818181818187</v>
       </c>
       <c r="L2">
-        <f t="shared" si="0"/>
-        <v>562.22348484848487</v>
+        <f t="shared" ref="L2:O2" si="2">AVERAGE(L112:L122)</f>
+        <v>472.18181818181819</v>
       </c>
       <c r="M2">
-        <f t="shared" si="0"/>
-        <v>566.13833992094862</v>
+        <f t="shared" si="2"/>
+        <v>700.4545454545455</v>
       </c>
       <c r="N2">
-        <f t="shared" si="0"/>
-        <v>560.03305785123962</v>
+        <f t="shared" si="2"/>
+        <v>572</v>
       </c>
       <c r="O2">
-        <f t="shared" si="0"/>
-        <v>559.46320346320351</v>
+        <f t="shared" si="2"/>
+        <v>553.63636363636363</v>
       </c>
       <c r="P2">
-        <f t="shared" si="0"/>
-        <v>559.75454545454545</v>
+        <f>AVERAGE(P112:P122)</f>
+        <v>1168.6363636363637</v>
       </c>
       <c r="Q2">
-        <f t="shared" si="0"/>
-        <v>527.70813397129189</v>
+        <f t="shared" ref="Q2:T2" si="3">AVERAGE(Q112:Q122)</f>
+        <v>1263.4545454545455</v>
       </c>
       <c r="R2">
-        <f t="shared" si="0"/>
-        <v>486.83333333333331</v>
+        <f t="shared" si="3"/>
+        <v>938.09090909090912</v>
       </c>
       <c r="S2">
-        <f t="shared" si="0"/>
-        <v>460.28877005347596</v>
+        <f t="shared" si="3"/>
+        <v>558.81818181818187</v>
       </c>
       <c r="T2">
-        <f t="shared" si="0"/>
-        <v>454.13068181818181</v>
+        <f t="shared" si="3"/>
+        <v>849.4545454545455</v>
       </c>
       <c r="U2">
-        <f t="shared" si="0"/>
-        <v>427.77575757575755</v>
+        <f>AVERAGE(U112:U122)</f>
+        <v>587.18181818181813</v>
       </c>
       <c r="V2">
-        <f t="shared" si="0"/>
-        <v>416.38961038961037</v>
+        <f t="shared" ref="V2:Y2" si="4">AVERAGE(V112:V122)</f>
+        <v>477.09090909090907</v>
       </c>
       <c r="W2">
-        <f t="shared" si="0"/>
-        <v>411.72027972027973</v>
+        <f t="shared" si="4"/>
+        <v>443.36363636363637</v>
       </c>
       <c r="X2">
-        <f t="shared" si="0"/>
-        <v>409.08333333333331</v>
+        <f t="shared" si="4"/>
+        <v>450.72727272727275</v>
       </c>
       <c r="Y2">
-        <f t="shared" si="0"/>
-        <v>405.29752066115702</v>
+        <f t="shared" si="4"/>
+        <v>401</v>
       </c>
       <c r="Z2">
-        <f t="shared" si="0"/>
-        <v>405.72727272727275</v>
+        <f>AVERAGE(Z112:Z122)</f>
+        <v>404.90909090909093</v>
       </c>
       <c r="AA2">
-        <f t="shared" si="0"/>
-        <v>405.81818181818181</v>
+        <f t="shared" ref="AA2:AC2" si="5">AVERAGE(AA112:AA122)</f>
+        <v>406.18181818181819</v>
       </c>
       <c r="AB2">
-        <f t="shared" si="0"/>
-        <v>405.77272727272725</v>
+        <f t="shared" si="5"/>
+        <v>408.18181818181819</v>
       </c>
       <c r="AC2">
-        <f t="shared" si="0"/>
-        <v>405.42857142857144</v>
+        <f t="shared" si="5"/>
+        <v>405.27272727272725</v>
       </c>
       <c r="AD2">
-        <f t="shared" si="0"/>
-        <v>405.45454545454544</v>
+        <f>AVERAGE(AD112:AD122)</f>
+        <v>407</v>
       </c>
       <c r="AE2">
-        <f t="shared" si="0"/>
-        <v>405.14545454545453</v>
+        <f>AVERAGE(AE112:AE122)</f>
+        <v>404.09090909090907</v>
       </c>
       <c r="AF2">
-        <f t="shared" si="0"/>
-        <v>405.40909090909093</v>
+        <f t="shared" ref="AF2:AI2" si="6">AVERAGE(AF112:AF122)</f>
+        <v>405.09090909090907</v>
       </c>
       <c r="AG2">
-        <f t="shared" si="0"/>
-        <v>405.5151515151515</v>
+        <f t="shared" si="6"/>
+        <v>404</v>
       </c>
       <c r="AH2">
-        <f t="shared" si="0"/>
-        <v>406.27272727272725</v>
+        <f t="shared" si="6"/>
+        <v>406.81818181818181</v>
       </c>
       <c r="AI2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>405.72727272727275</v>
       </c>
     </row>
@@ -56641,139 +56641,139 @@
         <v>449.2</v>
       </c>
       <c r="B123">
-        <f t="shared" ref="B123:AI123" si="1">AVERAGE(B3:B122)</f>
+        <f t="shared" ref="B123:AI123" si="7">AVERAGE(B3:B122)</f>
         <v>492.60833333333335</v>
       </c>
       <c r="C123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>449.46666666666664</v>
       </c>
       <c r="D123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>440.68333333333334</v>
       </c>
       <c r="E123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>428.61666666666667</v>
       </c>
       <c r="F123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>405.48333333333335</v>
       </c>
       <c r="G123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>405.97500000000002</v>
       </c>
       <c r="H123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>405.66666666666669</v>
       </c>
       <c r="I123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>405.80833333333334</v>
       </c>
       <c r="J123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>404.96666666666664</v>
       </c>
       <c r="K123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>504.23333333333335</v>
       </c>
       <c r="L123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>430.55</v>
       </c>
       <c r="M123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>585.93333333333328</v>
       </c>
       <c r="N123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>494.34166666666664</v>
       </c>
       <c r="O123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>503.85</v>
       </c>
       <c r="P123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>541.83333333333337</v>
       </c>
       <c r="Q123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>527.86666666666667</v>
       </c>
       <c r="R123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>527.79999999999995</v>
       </c>
       <c r="S123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>460.83333333333331</v>
       </c>
       <c r="T123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>940.8</v>
       </c>
       <c r="U123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>513.9666666666667</v>
       </c>
       <c r="V123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>447.32499999999999</v>
       </c>
       <c r="W123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>432.53333333333336</v>
       </c>
       <c r="X123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>450.61666666666667</v>
       </c>
       <c r="Y123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>403.24166666666667</v>
       </c>
       <c r="Z123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>404.61666666666667</v>
       </c>
       <c r="AA123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>406.06666666666666</v>
       </c>
       <c r="AB123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>406.40833333333336</v>
       </c>
       <c r="AC123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>406.75833333333333</v>
       </c>
       <c r="AD123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>404.41666666666669</v>
       </c>
       <c r="AE123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>404.39166666666665</v>
       </c>
       <c r="AF123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>405.17500000000001</v>
       </c>
       <c r="AG123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>404.1</v>
       </c>
       <c r="AH123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>406.32499999999999</v>
       </c>
       <c r="AI123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>405.45</v>
       </c>
     </row>
@@ -56786,8 +56786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00E2B43-EE77-4AE8-8DCD-EA6BF8EABC96}">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
